--- a/biology/Botanique/Aristotelia/Aristotelia.xlsx
+++ b/biology/Botanique/Aristotelia/Aristotelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aristotelia est un genre de plantes de la famille des Elaeocarpaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de petits arbres ou arbustes, à feuillage généralement persistant.
 Les fleurs sont hermaphrodites ou unisexuées, à quatre ou cinq sépales et quatre ou cinq pétales.
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est principalement représenté dans l'hémisphère sud : Australie, Nouvelle-Zélande, Amérique du Sud et Pacifique.
 </t>
@@ -575,7 +591,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI - The International Plant Names Index - et Tropicos - index du Jardin Botanique du Missouri - à la date de juillet 2011. En gras sont indiquées les espèces retenues dans le genre :
 Aristotelia australasica F.Muell. (1861) - Australie
@@ -601,7 +619,7 @@
 Aristotelia megalosperma F.Muell. (1875) – synonyme :Aceratium megalospermum (F. Muell.) Balgooy
 Aristotelia peduncularis (Labill.) Hook.f. (1857) – synonyme : Elaeocarpus peduncularis Labill.
 Aristotelia pubescens C.T.White (1918)
-Aristotelia racemosa (A.Cunn.) Hook.f. (1852) – synonyme : Friesia racemosa A. Cunn.[1]
+Aristotelia racemosa (A.Cunn.) Hook.f. (1852) – synonyme : Friesia racemosa A. Cunn.
 Aristotelia serrata (J. R. Forst. &amp; G. Forst.) Oliv. (1921) – synonyme : Dicera serrata J.R.Forst. &amp; G.Forst.
 Aristotelia trilocularis F.M.Bailey (1913)</t>
         </is>
@@ -631,11 +649,13 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre compte une section :
 section Friesia F.Muell. (1875)
-Charles Louis L'Héritier de Brutelle décrit une première fois ce genre en 1784 et le dédie à Aristote[2]. Il avait choisi comme espèce type Aristotelia macqui, espèce qui se révélera être un synonyme de Cornus chilensis décrite par Juan Ignacio Molina en 1782, et qui devient Aristotelia chilensis en 1914.
+Charles Louis L'Héritier de Brutelle décrit une première fois ce genre en 1784 et le dédie à Aristote. Il avait choisi comme espèce type Aristotelia macqui, espèce qui se révélera être un synonyme de Cornus chilensis décrite par Juan Ignacio Molina en 1782, et qui devient Aristotelia chilensis en 1914.
 En 1785, Jean-Baptiste de Lamarck a créé un homonyme, invalide, dans la famille des Combrétacées.
 			Aristotelia peduncularis
 			Aristotelia racemosa
